--- a/Assign.xlsx
+++ b/Assign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_Tcode" sheetId="2" r:id="rId1"/>
@@ -415,7 +415,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0">
-  <autoFilter ref="A1:J18"/>
+  <autoFilter ref="A1:J18">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="TestScenarioID"/>
     <tableColumn id="2" name="TestCaseID"/>
@@ -434,7 +440,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J19" totalsRowShown="0">
-  <autoFilter ref="A1:J19"/>
+  <autoFilter ref="A1:J19">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="TestScenarioID"/>
     <tableColumn id="2" name="TestCaseID"/>
@@ -738,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +826,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -831,7 +843,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -848,7 +860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -865,7 +877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -882,7 +894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>33</v>
       </c>
@@ -922,7 +934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -962,7 +974,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>17</v>
       </c>
@@ -979,7 +991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>21</v>
       </c>
@@ -996,7 +1008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>25</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>33</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>18</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>22</v>
       </c>
@@ -1110,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>61</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>64</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>67</v>
       </c>
@@ -1222,7 +1234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>70</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>73</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>76</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>79</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>82</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>85</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>88</v>
       </c>
@@ -1320,7 +1332,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>91</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>96</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>98</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>100</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>102</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>105</v>
       </c>
